--- a/Employee_Reports21/Levitico Jose Caniedo Q0492.xlsx
+++ b/Employee_Reports21/Levitico Jose Caniedo Q0492.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1304,11 +1304,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1350,11 +1350,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1442,11 +1442,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1488,11 +1488,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1534,11 +1534,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
